--- a/output/vendor_xyz_contract/vendor_xyz_contract_extracted_contract_details.xlsx
+++ b/output/vendor_xyz_contract/vendor_xyz_contract_extracted_contract_details.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$120,000</t>
+          <t>$120,000 USD</t>
         </is>
       </c>
     </row>
